--- a/results_loading_times/instance_12_times.xlsx
+++ b/results_loading_times/instance_12_times.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -471,44 +471,44 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
